--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2872.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2872.xlsx
@@ -354,7 +354,7 @@
         <v>2.015656658570531</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.083208051438682</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2872.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2872.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.201824770049898</v>
+        <v>0.9780805706977844</v>
       </c>
       <c r="B1">
-        <v>2.015656658570531</v>
+        <v>2.817479610443115</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.045762777328491</v>
       </c>
       <c r="D1">
-        <v>2.083208051438682</v>
+        <v>3.650051832199097</v>
       </c>
       <c r="E1">
-        <v>1.20551528722936</v>
+        <v>1.587705492973328</v>
       </c>
     </row>
   </sheetData>
